--- a/csv files/stations/trips_p2_stations.xlsx
+++ b/csv files/stations/trips_p2_stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\divvy-bikeshare\csv files\stations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A43D4B-E2DF-4980-AE19-06DE1B136113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813A812-1347-4A25-A74F-58EDBC6322F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="330" windowWidth="10515" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12750" yWindow="315" windowWidth="12480" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trips_p2_stations" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="2895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="2895">
   <si>
     <t>id</t>
   </si>
@@ -9868,8 +9868,8 @@
   <dimension ref="A1:E702"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D292" sqref="D292"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B487" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10955,32 +10955,32 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>293</v>
+        <v>13074</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
       </c>
-      <c r="C68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
-      </c>
-      <c r="D68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A68,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>Broadway &amp; Wilson - Truman College Vaccination Site</v>
+      <c r="C68">
+        <v>293</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>13074</v>
+        <v>293</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
-      <c r="C69">
-        <v>293</v>
-      </c>
-      <c r="D69" t="s">
-        <v>29</v>
+      <c r="C69" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B69,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
+      </c>
+      <c r="D69" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(A69,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>Broadway &amp; Wilson - Truman College Vaccination Site</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -14831,36 +14831,36 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>671</v>
+      <c r="A310" t="s">
+        <v>392</v>
       </c>
       <c r="B310" t="s">
         <v>372</v>
       </c>
-      <c r="C310" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B310,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="C310">
+        <v>671</v>
       </c>
       <c r="D310" t="s">
         <v>393</v>
       </c>
-      <c r="E310" t="str">
-        <f>_xlfn.IFNA(IF(VLOOKUP(A310,Stations!A:A,1,FALSE)=A310,"taken"),"free")</f>
-        <v>free</v>
-      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>392</v>
+      <c r="A311">
+        <v>671</v>
       </c>
       <c r="B311" t="s">
         <v>372</v>
       </c>
-      <c r="C311">
-        <v>671</v>
+      <c r="C311" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B311,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
       <c r="D311" t="s">
         <v>393</v>
+      </c>
+      <c r="E311" t="str">
+        <f>_xlfn.IFNA(IF(VLOOKUP(A311,Stations!A:A,1,FALSE)=A311,"taken"),"free")</f>
+        <v>free</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -15632,186 +15632,186 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>334</v>
+      <c r="A359" t="s">
+        <v>951</v>
       </c>
       <c r="B359" t="s">
         <v>331</v>
       </c>
-      <c r="C359" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B359,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="C359">
+        <v>334</v>
       </c>
       <c r="D359" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A359,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>DuSable Lake Shore Dr &amp; Belmont Ave</v>
+        <f>_xlfn.IFNA(VLOOKUP(A359,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>951</v>
+      <c r="A360">
+        <v>334</v>
       </c>
       <c r="B360" t="s">
         <v>331</v>
       </c>
-      <c r="C360">
-        <v>334</v>
+      <c r="C360" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B360,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
       <c r="D360" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A360,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
-        <v>same</v>
+        <f>_xlfn.IFNA(VLOOKUP(A360,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>DuSable Lake Shore Dr &amp; Belmont Ave</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>329</v>
+      <c r="A361" t="s">
+        <v>943</v>
       </c>
       <c r="B361" t="s">
         <v>325</v>
       </c>
-      <c r="C361" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B361,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="C361">
+        <v>329</v>
       </c>
       <c r="D361" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A361,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>DuSable Lake Shore Dr &amp; Diversey Pkwy</v>
+        <f>_xlfn.IFNA(VLOOKUP(A361,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>943</v>
+      <c r="A362">
+        <v>329</v>
       </c>
       <c r="B362" t="s">
         <v>325</v>
       </c>
-      <c r="C362">
-        <v>329</v>
+      <c r="C362" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B362,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
       <c r="D362" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A362,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
-        <v>same</v>
+        <f>_xlfn.IFNA(VLOOKUP(A362,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>DuSable Lake Shore Dr &amp; Diversey Pkwy</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>76</v>
+        <v>13300</v>
       </c>
       <c r="B363" t="s">
         <v>115</v>
       </c>
-      <c r="C363" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B363,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
-      </c>
-      <c r="D363" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A363,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>DuSable Lake Shore Dr &amp; Monroe St</v>
+      <c r="C363">
+        <v>76</v>
+      </c>
+      <c r="D363" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>13300</v>
+        <v>76</v>
       </c>
       <c r="B364" t="s">
         <v>115</v>
       </c>
-      <c r="C364">
-        <v>76</v>
-      </c>
-      <c r="D364" t="s">
-        <v>114</v>
+      <c r="C364" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B364,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
+      </c>
+      <c r="D364" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(A364,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>DuSable Lake Shore Dr &amp; Monroe St</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>268</v>
+      <c r="A365" t="s">
+        <v>622</v>
       </c>
       <c r="B365" t="s">
         <v>323</v>
       </c>
-      <c r="C365" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B365,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
-      </c>
-      <c r="D365" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A365,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>DuSable Lake Shore Dr &amp; North Blvd</v>
+      <c r="C365">
+        <v>268</v>
+      </c>
+      <c r="D365" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>622</v>
+      <c r="A366">
+        <v>268</v>
       </c>
       <c r="B366" t="s">
         <v>323</v>
       </c>
-      <c r="C366">
-        <v>268</v>
-      </c>
-      <c r="D366" t="s">
-        <v>623</v>
+      <c r="C366" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B366,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
+      </c>
+      <c r="D366" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(A366,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>DuSable Lake Shore Dr &amp; North Blvd</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>99</v>
+      <c r="A367" t="s">
+        <v>736</v>
       </c>
       <c r="B367" t="s">
         <v>376</v>
       </c>
-      <c r="C367" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B367,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
-      </c>
-      <c r="D367" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A367,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>McClurg Ct &amp; Ohio St</v>
+      <c r="C367">
+        <v>99</v>
+      </c>
+      <c r="D367" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>736</v>
+      <c r="A368">
+        <v>99</v>
       </c>
       <c r="B368" t="s">
         <v>376</v>
       </c>
-      <c r="C368">
-        <v>99</v>
-      </c>
-      <c r="D368" t="s">
-        <v>738</v>
+      <c r="C368" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B368,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
+      </c>
+      <c r="D368" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(A368,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>McClurg Ct &amp; Ohio St</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>157</v>
+      <c r="A369" t="s">
+        <v>751</v>
       </c>
       <c r="B369" t="s">
         <v>197</v>
       </c>
-      <c r="C369" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B369,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="C369">
+        <v>157</v>
       </c>
       <c r="D369" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A369,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>DuSable Lake Shore Dr &amp; Wellington Ave</v>
+        <f>_xlfn.IFNA(VLOOKUP(A369,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>751</v>
+      <c r="A370">
+        <v>157</v>
       </c>
       <c r="B370" t="s">
         <v>197</v>
       </c>
-      <c r="C370">
-        <v>157</v>
+      <c r="C370" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B370,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
       <c r="D370" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A370,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
-        <v>same</v>
+        <f>_xlfn.IFNA(VLOOKUP(A370,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>DuSable Lake Shore Dr &amp; Wellington Ave</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -16709,34 +16709,34 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>58</v>
+      <c r="A426" t="s">
+        <v>702</v>
       </c>
       <c r="B426" t="s">
         <v>358</v>
       </c>
-      <c r="C426" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B426,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="C426">
+        <v>58</v>
       </c>
       <c r="D426" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A426,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>Elston Ave &amp; Cortland St</v>
+        <f>_xlfn.IFNA(VLOOKUP(A426,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>702</v>
+      <c r="A427">
+        <v>58</v>
       </c>
       <c r="B427" t="s">
         <v>358</v>
       </c>
-      <c r="C427">
-        <v>58</v>
+      <c r="C427" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B427,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
       <c r="D427" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A427,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
-        <v>same</v>
+        <f>_xlfn.IFNA(VLOOKUP(A427,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>Elston Ave &amp; Cortland St</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -17519,9 +17519,8 @@
         <f>_xlfn.IFNA(VLOOKUP(B476,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
         <v>same</v>
       </c>
-      <c r="D476" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A476,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="D476" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -17654,14 +17653,14 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>13221</v>
+      <c r="A485" t="s">
+        <v>976</v>
       </c>
       <c r="B485" t="s">
         <v>82</v>
       </c>
       <c r="C485">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D485" t="str">
         <f>_xlfn.IFNA(VLOOKUP(A485,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
@@ -17670,13 +17669,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>20215</v>
+        <v>13221</v>
       </c>
       <c r="B486" t="s">
         <v>82</v>
       </c>
       <c r="C486">
-        <v>732</v>
+        <v>61</v>
       </c>
       <c r="D486" t="str">
         <f>_xlfn.IFNA(VLOOKUP(A486,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
@@ -17684,15 +17683,14 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>82</v>
+      <c r="A487">
+        <v>20215</v>
       </c>
       <c r="B487" t="s">
         <v>82</v>
       </c>
-      <c r="C487" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B487,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
+      <c r="C487">
+        <v>732</v>
       </c>
       <c r="D487" t="str">
         <f>_xlfn.IFNA(VLOOKUP(A487,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
@@ -17701,13 +17699,14 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>976</v>
+        <v>82</v>
       </c>
       <c r="B488" t="s">
         <v>82</v>
       </c>
-      <c r="C488">
-        <v>57</v>
+      <c r="C488" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B488,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
       </c>
       <c r="D488" t="str">
         <f>_xlfn.IFNA(VLOOKUP(A488,Stations!$A$2:$B$1270,2,FALSE),"same")</f>
@@ -20653,33 +20652,33 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A672">
-        <v>446</v>
+      <c r="A672" t="s">
+        <v>606</v>
       </c>
       <c r="B672" t="s">
         <v>353</v>
       </c>
-      <c r="C672" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B672,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
-        <v>same</v>
-      </c>
-      <c r="D672" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(A672,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
-        <v>Western &amp; 28th - Velasquez Institute Vaccination Site</v>
+      <c r="C672">
+        <v>446</v>
+      </c>
+      <c r="D672" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
-        <v>606</v>
+      <c r="A673">
+        <v>446</v>
       </c>
       <c r="B673" t="s">
         <v>353</v>
       </c>
-      <c r="C673">
-        <v>446</v>
-      </c>
-      <c r="D673" t="s">
-        <v>607</v>
+      <c r="C673" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B673,Stations!$B$2:$C$1270,2,FALSE),"same")</f>
+        <v>same</v>
+      </c>
+      <c r="D673" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(A673,Stations!$A$2:$B$1270,2,FALSE),"missing")</f>
+        <v>Western &amp; 28th - Velasquez Institute Vaccination Site</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
